--- a/data/trans_bre/P21D_1_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P21D_1_R-Dificultad-trans_bre.xlsx
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.525895351349744</v>
+        <v>1.432643589669002</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8410505904167025</v>
+        <v>0.6984220219711792</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
     </row>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2884087387893889</v>
+        <v>0.3091096217523284</v>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
     </row>
